--- a/3_Code/4ADMonthlyTrackerCodebook.xlsx
+++ b/3_Code/4ADMonthlyTrackerCodebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abagaini/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abagaini/a4d_analytics/3_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C902E-DB5E-564B-8C96-15C38E288EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA08D5-4728-7B49-A5D7-A60F9A2DEDA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version_TrackerMerged" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>support_from_a4d</t>
-  </si>
-  <si>
-    <t>testing_fqr</t>
   </si>
   <si>
     <t>est_strips_pmoth</t>
@@ -1044,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="I4:AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1148,114 +1145,42 @@
       <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -1271,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -1298,7 +1223,7 @@
         <v>36176</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -1306,7 +1231,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>3</v>
@@ -1322,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1345,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -1353,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
@@ -1368,7 +1293,7 @@
         <v>44212</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1376,7 +1301,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
@@ -1391,7 +1316,7 @@
         <v>9.67</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1414,7 +1339,7 @@
         <v>11.2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -1437,7 +1362,7 @@
         <v>43779</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
@@ -1445,7 +1370,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
@@ -1460,7 +1385,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
@@ -1468,7 +1393,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>3</v>
@@ -1483,7 +1408,7 @@
         <v>120</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
@@ -1491,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>3</v>
@@ -1512,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>3</v>
@@ -1521,19 +1446,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -1548,15 +1473,15 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
@@ -1571,15 +1496,15 @@
         <v>70</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>3</v>
@@ -1588,21 +1513,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>3</v>
@@ -1611,21 +1536,21 @@
         <v>3</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>3</v>
@@ -1643,10 +1568,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>12</v>
@@ -1658,16 +1583,16 @@
         <v>22</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>12</v>
@@ -1679,16 +1604,16 @@
         <v>22</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>3</v>
@@ -1700,16 +1625,16 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>3</v>
@@ -1721,18 +1646,18 @@
         <v>22</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>3</v>
@@ -1741,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="11">
         <v>120</v>
@@ -1750,10 +1675,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>3</v>
@@ -1762,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="11">
         <v>80</v>
@@ -1771,7 +1696,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>13</v>
@@ -1789,12 +1714,12 @@
         <v>40</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>15</v>
@@ -1812,15 +1737,15 @@
         <v>1.3</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>3</v>
@@ -1835,12 +1760,12 @@
         <v>23</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>21</v>
@@ -1861,7 +1786,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>16</v>
@@ -1873,18 +1798,18 @@
         <v>3</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>17</v>
@@ -1899,15 +1824,15 @@
         <v>24</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>18</v>
@@ -1925,12 +1850,12 @@
         <v>43779</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>23</v>
@@ -1945,16 +1870,16 @@
         <v>22</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>12</v>
@@ -1966,13 +1891,13 @@
         <v>22</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>19</v>
@@ -1993,7 +1918,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>19</v>
@@ -2014,10 +1939,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>3</v>
@@ -2029,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="12"/>
     </row>
